--- a/数据整理/stocks/A股/创业板/300078-思创医惠.xlsx
+++ b/数据整理/stocks/A股/创业板/300078-思创医惠.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001883</t>
+          <t>166027</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧新动力混合(LOF) -E</t>
+          <t>中欧创业板两年定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.56</t>
+          <t>24.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7034</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>166009</t>
+          <t>009210</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧新动力混合(LOF) -A</t>
+          <t>中欧嘉和三年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.56</t>
+          <t>19.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9815</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009791</t>
+          <t>005421</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧创业板两年定期开放混合C</t>
+          <t>中欧嘉泽灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>87.78</t>
+          <t>14.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6299</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>166027</t>
+          <t>001883</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧创业板两年定期开放混合A</t>
+          <t>中欧新动力混合(LOF) -E</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.78</t>
+          <t>17.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5945</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501007</t>
+          <t>166009</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+          <t>中欧新动力混合(LOF) -A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>17.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5945</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501008</t>
+          <t>001955</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+          <t>中欧养老产业混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4849</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001955</t>
+          <t>009791</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧养老产业混合</t>
+          <t>中欧创业板两年定期开放混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.53</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4312</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004236</t>
+          <t>009211</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧新动力混合(LOF) -C</t>
+          <t>中欧嘉和三年持有期混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.56</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005421</t>
+          <t>004236</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中欧嘉泽灵活配置混合</t>
+          <t>中欧新动力混合(LOF) -C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009210</t>
+          <t>501007</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中欧嘉和三年持有期混合A</t>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009211</t>
+          <t>501008</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中欧嘉和三年持有期混合C</t>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,15 +946,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -846,26 +976,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005421</t>
+          <t>166027</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧嘉泽灵活配置混合</t>
+          <t>中欧创业板两年定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.28</t>
+          <t>24.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>96.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8828</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501007</t>
+          <t>009210</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+          <t>中欧嘉和三年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>20.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8654</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501008</t>
+          <t>001955</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+          <t>中欧养老产业混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6386</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009907</t>
+          <t>005421</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>湘财长泽灵活配置混合A</t>
+          <t>中欧嘉泽灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>74.89</t>
+          <t>11.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5562</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009908</t>
+          <t>009791</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>湘财长泽灵活配置混合C</t>
+          <t>中欧创业板两年定期开放混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>74.89</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>96.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4665</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -986,25 +1166,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010076</t>
+          <t>009211</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>湘财长弘灵活配置混合A</t>
+          <t>中欧嘉和三年持有期混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>82.93</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010077</t>
+          <t>009907</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>湘财长弘灵活配置混合C</t>
+          <t>湘财长泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>82.93</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>1.89</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>6</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001955</t>
+          <t>501007</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧养老产业混合</t>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.77</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>166027</t>
+          <t>009908</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中欧创业板两年定期开放混合A</t>
+          <t>湘财长泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>96.82</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009791</t>
+          <t>010076</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中欧创业板两年定期开放混合C</t>
+          <t>湘财长弘灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>96.82</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009210</t>
+          <t>501008</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中欧嘉和三年持有期混合A</t>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>88.24</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1154,25 +1394,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009211</t>
+          <t>010077</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中欧嘉和三年持有期混合C</t>
+          <t>湘财长弘灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>88.24</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300078-思创医惠.xlsx
+++ b/数据整理/stocks/A股/创业板/300078-思创医惠.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,4 +1430,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300078-思创医惠.xlsx
+++ b/数据整理/stocks/A股/创业板/300078-思创医惠.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1562,4 +1563,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300078-思创医惠.xlsx
+++ b/数据整理/stocks/A股/创业板/300078-思创医惠.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1571,7 +1572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1582,17 +1583,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1602,14 +1623,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1618,14 +1661,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>4.68</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -1634,13 +1767,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>11</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>5.72</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300078-思创医惠.xlsx
+++ b/数据整理/stocks/A股/创业板/300078-思创医惠.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1704,7 +1705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,17 +1716,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1735,14 +1756,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1751,7 +1794,97 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -1767,14 +1900,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>4.68</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
@@ -1783,13 +1916,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.72</v>
       </c>
     </row>
